--- a/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/contestable_outputs.xlsx
+++ b/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/contestable_outputs.xlsx
@@ -487,37 +487,37 @@
         <v>68.03329139751716</v>
       </c>
       <c r="C2" t="n">
-        <v>24.73208787432115</v>
+        <v>67.27041912980786</v>
       </c>
       <c r="D2" t="n">
-        <v>27.38360478984796</v>
+        <v>75.46899035276525</v>
       </c>
       <c r="E2" t="n">
-        <v>39.49434004658031</v>
+        <v>84.1721712156311</v>
       </c>
       <c r="F2" t="n">
-        <v>56.46037555052477</v>
+        <v>102.2562160180078</v>
       </c>
       <c r="G2" t="n">
-        <v>72.26869900319231</v>
+        <v>116.884730716437</v>
       </c>
       <c r="H2" t="n">
-        <v>57.58056903166413</v>
+        <v>101.0380135610794</v>
       </c>
       <c r="I2" t="n">
-        <v>54.89076927330287</v>
+        <v>96.68832452060012</v>
       </c>
       <c r="J2" t="n">
-        <v>59.58640061598263</v>
+        <v>95.96377337175112</v>
       </c>
       <c r="K2" t="n">
-        <v>69.13820525444315</v>
+        <v>106.7118390667976</v>
       </c>
       <c r="L2" t="n">
-        <v>72.72314821682757</v>
+        <v>106.6934306595773</v>
       </c>
       <c r="M2" t="n">
-        <v>58.25749480054617</v>
+        <v>103.554303776813</v>
       </c>
     </row>
     <row r="3">
@@ -530,37 +530,37 @@
         <v>0.6758506791823676</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3699915906290613</v>
+        <v>0.6149969868334814</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3619258983542193</v>
+        <v>0.6098692013061443</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4267156415288569</v>
+        <v>0.6133564345384579</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5163887047344068</v>
+        <v>0.6591527394454733</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5785312697204873</v>
+        <v>0.6894489057829729</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4720371322914038</v>
+        <v>0.6107208649133792</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4572579507071268</v>
+        <v>0.5974282796128544</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4776887483653314</v>
+        <v>0.5956178871693026</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5148395890860114</v>
+        <v>0.6209071582345993</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5274543734691899</v>
+        <v>0.6208665492267679</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4302301812253927</v>
+        <v>0.5730512855856524</v>
       </c>
     </row>
   </sheetData>
